--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>num</t>
   </si>
@@ -26,6 +26,97 @@
   </si>
   <si>
     <t xml:space="preserve"> image</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;PROBLEMS AND PROSPECTS OF THE DAIRY SUB-AGRO-INDUSTRIAL COMPLEX IN THE REPUBLIC OF DAGESTAN&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Свежий номер&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Иван Федяков, глава ГК INFOLine&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Андрей Дахнович, председатель совета директоров Еланского и Семикаракорского сыродельных комбинатов&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Вячеслав Гладков, губернатор Белгородской области&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Анатолий Лосев, генеральный директор ГК «Молвест»&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Александр Поляк, директор компании «ИТ молоко»&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Дмитрий Матвеев, президент ГК «Кабош»&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Артем Крецу, представитель ТОО «ДЕП» (Казахстан)&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Игорь Брыло, помощник президента Беларуси по Витебской области&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Статья рассматривает развитие молочной субреспублики и нацелена на решение проблем, связанных с увеличением производства молока в RD. В статье проведен анализ структуры затрат на молоко и молочные продукты, что может свидетельствовать о неэффективностях в текущем процессе производства. Статья подчеркивает важность увеличения производства молока, вероятно, в связи с ростом спроса на молочные продукты.&lt;/p&gt;
+&lt;p&gt;Дополнительно, можно отметить, что по данным исследования, большая часть затрат на молоко и молочные продукты связана с транспортировкой и хранением, что может указывать на неэффективность в этих областях. Также, по данным статьи, существует потенциал для повышения производительности животноводства, что поможет увеличить выход продукции.&lt;/p&gt;
+&lt;p&gt;Кроме того, в статье отмечается, что увеличение производства молока может иметь положительный эффект на экономику RD, в том числе на снижение зависимости от импорта молочных продуктов. Это может способствовать созданию новых рабочих мест и повышению доходов в сельской местности.&lt;/p&gt;
+&lt;p&gt;В целом, статья подчеркивает важность улучшения эффективности производства молока в RD и предлагает дополнительные мысли и факты, которые могут быть полезны для разработки и реализации стратегии по увеличению производства молока и развитию молочной субреспублики.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Министерство сельского хозяйства и продовольствия Дагестана планирует разработать госпрограмму, направленную на развитие молочного скотоводства в регионе. Основная цель программы заключается в увеличении объемов производства собственной молочной продукции и сокращении импорта молока из других регионов. В связи с этим, премьер-министр Дагестана, Абдулмуслим Абдулмуслимов, посетил молочную ферму и выразил свою обеспокоенность тем, что регион не обеспечивает себя достаточным количеством молочной продукции. Одной из посещенных премьер-министром молочных ферм является ферма ООО "Мареновский", специализирующаяся на разведении черно-пестрой и красной степной пород коров. Однако, согласно пресс-службе правительства, более половины молочной продукции в Дагестане по-прежнему приходится на импорт из других регионов, что свидетельствует о неблагоприятной ситуации с собственным производством. В свете этих фактов, Министерство сельского хозяйства и продовольствия Дагестана получило задание разработать республиканскую программу по развитию молочного скотоводства, которая будет ориентирована на поддержку фермеров и направлена на решение проблемы дефицита собственной молочной продукции в регионе.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;В хозяйстве АО «Голыцино» внедрение роботизированной системы доения коров привело к значительному улучшению качества молока и организации процесса доения. Благодаря этой инновационной системе, предприятие значительно увеличило показатель удоя молока, став одним из лучших в данной сфере. В настоящее время в хозяйстве функционирует 8 роботов, которые эффективно обслуживают 60 коров каждый.&lt;/p&gt;
+&lt;p&gt;В свою очередь, ООО Кизляр Урицкого мясокомбината планирует создать молокоперерабатывающий завод и расширить свою сырьевую базу путем разведения 1000 дойных коров. Для осуществления данного проекта будет проведена поэтапная реализация, начиная с создания молочно-товарной фермы на 250 коров. Ожидается, что это позволит компании увеличить производство молока и достичь новых высот в данной сфере.&lt;/p&gt;
+&lt;p&gt;В Дагестане поставлены перед собой задачи по дальнейшему развитию молочного скотоводства. Республика пока еще не полностью удовлетворяет свои внутренние потребности в молоке, поэтому в данном направлении проводятся инвестиционные проекты, при поддержке государства. Целью данных проектов является снижение зависимости республики от импорта молочной продукции и увеличение производства собственного молока.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Дискаунтеры, известные своим форматом с низкими ценами и ограниченным выбором товаров, стали популярным выбором среди бедного населения. В настоящее время российские дискаунтеры активно работают над увеличением доли продаж товаров под маркой СТМ и планируют достичь 50% продаж под этой маркой в течение ближайших 3-5 лет. Развитие сетей дискаунтеров играет важную роль в стратегии крупных розничных сетей, которые стремятся укрепить свои позиции на рынке и конкурировать с другими сетями. Учитывая рост числа бедного населения, спрос на дискаунтеры также увеличивается. Марка СТМ, вероятно, является собственной торговой маркой дискаунтеров, которая позволяет им сохранять низкие цены на товары.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Согласно данным, в России ежемесячно потребляется около 1200-1400 тонн пиццачиза. Однако, аналоги пиццачиза пользуются гораздо большей популярностью, их потребление составляет приблизительно 4000 тонн в месяц. Это означает, что соотношение потребления настоящей моцареллы и аналогов приблизительно 1:3. Важно отметить, что эти данные отражают только ситуацию внутри страны и не раскрывают факторы, влияющие на такое значительное потребление аналогов. Возможно, это объясняется их доступностью и низкой стоимостью. Для более глубокого понимания данного различия полезно знать дополнительную информацию о происхождении пиццачиза.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;В Белгородской области аграрии столкнулись с непростыми условиями, включающими обстрелы и минирование. Из-за этого они вынуждены работать в очень тяжелых и опасных условиях, надевая каски и бронежилеты, чтобы обеспечить свою безопасность. Тем не менее, несмотря на все трудности, эти мужественные люди продолжают справляться со своими задачами. Автор данного текста искренне благодарит аграриев за их усилия и работу. Он осознает, что опасные условия для аграриев в Белгородской области могут быть связаны с военными действиями и конфликтами, которые представляют реальную угрозу как им, так и окружающей среде. Обстрелы и минирование создают серьезную опасность во время работы аграриев на полях. Но благодаря использованию специальной экипировки, такой как каски и бронежилеты, аграрии могут надежно защитить себя от возможных опасностей. Это еще раз демонстрирует насколько тяжелыми и опасными являются условия работы для этих людей. Несмотря на все препятствия, эти аграрии проявляют мужество, продолжая работать в сложных условиях. Они не только справляются со своими задачами, но и успешно выполняют их, несмотря на все риски. Автор данного текста хочет выразить свою искреннюю признательность аграриям за их посильный вклад и усилия. Он восхищается их мужеством, преданностью к профессии и способностью преодолевать трудности, с которыми они сталкиваются каждый день.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Повышение ключевой ставки до 12% и уменьшение субсидирования от ключевой ставки вызвало серьезные проблемы для производителей и переработчиков молока. Теперь предприятия, которые планировали расширяться и внедрять новые технологии, вынуждены сократить свои инвестиции. В результате, объемы инвестиций в молочную отрасль уменьшатся. Сыроварни и молочные комбинаты, которые занимаются переработкой молока, столкнутся с высокими кредитными расходами, что ограничит их возможность приобретать новое оборудование и применять новые технологии. Повышение стоимости молочной продукции может привести к повышению цен для потребителей, что снизит конкурентоспособность отрасли на рынке. Увеличение ставки кредитования также затронет предприятия, работающие в молочной отрасли. Увеличение стоимости средств приведет к росту себестоимости производства молока. Производители молока будут вынуждены затратить больше денег на корма, оборудование и оплату рабочей силы. Это в итоге приведет к повышению себестоимости производства молочной продукции, что потребует увеличения цен. Такая ситуация усложнит конкуренцию на рынке и может снизить спрос на продукцию. В свете этих изменений предприятия в молочной отрасли вынуждены искать альтернативные источники финансирования или сокращать свою деятельность. Они могут обратиться к частным инвесторам или искать государственные программы поддержки. Однако это может быть сложно, особенно для малых предприятий, которым необходим доступ к большим финансовым ресурсам. В результате развитие и инновации в молочной отрасли могут замедлиться, что будет негативно сказываться на развитии всей отрасли.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;В ближайшем будущем Центральный банк планирует повысить ключевую ставку до 12% с целью контроля инфляции и укрепления рубля. Однако, такое повышение предполагается временным, и через полгода ожидается стабилизация ставки. Прогнозируется, что стабилизация будет обусловлена положительным торговым сальдо России в 2023 году. Улучшение экономической ситуации в стране, включая рост торгового сальдо, будет способствовать этой стабилизации. Повышение экспорта и сокращение импорта товаров и услуг могут способствовать достижению этой цели. Рост мирового спроса на российскую энергетику и сельскохозяйственные товары будет способствовать увеличению экспорта, что положительно скажется на торговом сальдо и поможет стабилизировать экономику. Стабильная экономическая ситуация также будет иметь положительный эффект на бизнес-среду, привлекая инвестиции в Россию и способствуя развитию страны. Таким образом, повышение ключевой ставки и стабилизация экономики будут играть важную роль для будущего России.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Азия, Ближний Восток и Евросоюз имеют свои уникальные различия в менталитете и культуре потребления. В этих регионах существуют особенные предпочтения и традиции, отличающиеся от европейских стандартов, когда дело касается выбора и потребления товаров. Чтобы успешно экспортировать продукцию в эти регионы, необходимо сделать совместные усилия государства и бизнеса. Одной из важных составляющих является адаптация продукции под менталитет и культуру данных регионов. Например, может потребоваться пересмотр упаковки, маркировки и содержания товаров. В странах Азии и Ближнего Востока огромное внимание уделяется прошлому опыту деловых отношений и доверию к поставщику. Поэтому для успешного экспорта необходимо учитывать эти аспекты. Государство может оказывать поддержку для успешного экспорта продукции в эти регионы. Также можно установить торговые соглашения, проводить совместное продвижение продукции на внешних рынках, привлекать инвестиции в экономику и обеспечивать юридическую защиту интересов бизнеса.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Россия приняла решение поддержать молочную отрасль Казахстана с целью способствовать развитию этого сектора в стране и помочь российским экспортерам укрепить свои позиции на рынке. Поддержка молочной отрасли Казахстана является важным шагом для республики, так как Казахстан является импортером продуктов сухих фракций из России. Это поддерживает расширение ассортимента продуктов на казахстанском рынке и разнообразия его структуры. Конкуренция на российском рынке высока, поэтому для развития молочной отрасли в Казахстане может потребоваться дополнительная поддержка. Поддержка экспортеров поможет увеличить объемы экспорта молочных продуктов из Казахстана и укрепить позиции на международном рынке. Ввоз продуктов сухих фракций из России также способствует расширению ассортимента товаров в Казахстане и разнообразию рынка.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Животноводческое производство в Витебской области имеет огромную возможность для дальнейшего развития производства мяса и молока. Витебская область, расположенная в северо-восточной части Беларуси, обладает благоприятными природными условиями для животноводства, такими как плодородные почвы и обширные пастбища. Правительство области стремится посвятить больше внимания развитию животноводческой продукции и сделать все возможное для того, чтобы ежегодно увеличивать производство в объеме от 5 до 7%. Такое увеличение производства мяса и молока позволит значительно увеличить их объемы в течение следующих трех-четырех лет. Это в свою очередь повысит самообеспеченность региона продуктами питания и снизит зависимость от импорта. Для достижения поставленных целей в увеличении производства необходимо внедрять современные технологии, проводить обучение квалифицированных сотрудников и разрабатывать соответствующие инфраструктуры для животноводства. Надо отметить, что активное развитие животноводческого сектора может способствовать росту экономики и улучшению жизни сельских жителей области.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/10/730200cleverm-1.png" alt=f""&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/10/num3-4.jpg" alt=f"Анатолий Лосев, генеральный директор ГК «Молвест»"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/10/num3-5.jpg" alt=f"Артем Крецу, представитель ТОО «ДЕП» (Казахстан)"&gt;</t>
   </si>
 </sst>
 </file>
@@ -383,13 +474,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,6 +492,169 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>num</t>
   </si>
@@ -28,95 +28,88 @@
     <t xml:space="preserve"> image</t>
   </si>
   <si>
-    <t>&lt;h2&gt;PROBLEMS AND PROSPECTS OF THE DAIRY SUB-AGRO-INDUSTRIAL COMPLEX IN THE REPUBLIC OF DAGESTAN&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Свежий номер&lt;/h2&gt;</t>
+    <t>&lt;h2&gt;Вливания в «молочные реки». Производство молока остается привлекательным направлением для инвесторов&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Добавление статьи в новую подборку&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Правило 2. Придерживайтесь сроков уборки урожая&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Правило 4. Проведите сортировку плодов перед хранением&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Правило 5. Защитите урожай от болезней и вредителей&lt;/h2&gt;</t>
   </si>
   <si>
     <t>&lt;h2&gt;&lt;/h2&gt;</t>
   </si>
   <si>
-    <t>&lt;h2&gt;Иван Федяков, глава ГК INFOLine&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Андрей Дахнович, председатель совета директоров Еланского и Семикаракорского сыродельных комбинатов&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Вячеслав Гладков, губернатор Белгородской области&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Анатолий Лосев, генеральный директор ГК «Молвест»&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Александр Поляк, директор компании «ИТ молоко»&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Дмитрий Матвеев, президент ГК «Кабош»&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Артем Крецу, представитель ТОО «ДЕП» (Казахстан)&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Игорь Брыло, помощник президента Беларуси по Витебской области&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Статья рассматривает развитие молочной субреспублики и нацелена на решение проблем, связанных с увеличением производства молока в RD. В статье проведен анализ структуры затрат на молоко и молочные продукты, что может свидетельствовать о неэффективностях в текущем процессе производства. Статья подчеркивает важность увеличения производства молока, вероятно, в связи с ростом спроса на молочные продукты.&lt;/p&gt;
-&lt;p&gt;Дополнительно, можно отметить, что по данным исследования, большая часть затрат на молоко и молочные продукты связана с транспортировкой и хранением, что может указывать на неэффективность в этих областях. Также, по данным статьи, существует потенциал для повышения производительности животноводства, что поможет увеличить выход продукции.&lt;/p&gt;
-&lt;p&gt;Кроме того, в статье отмечается, что увеличение производства молока может иметь положительный эффект на экономику RD, в том числе на снижение зависимости от импорта молочных продуктов. Это может способствовать созданию новых рабочих мест и повышению доходов в сельской местности.&lt;/p&gt;
-&lt;p&gt;В целом, статья подчеркивает важность улучшения эффективности производства молока в RD и предлагает дополнительные мысли и факты, которые могут быть полезны для разработки и реализации стратегии по увеличению производства молока и развитию молочной субреспублики.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Министерство сельского хозяйства и продовольствия Дагестана планирует разработать госпрограмму, направленную на развитие молочного скотоводства в регионе. Основная цель программы заключается в увеличении объемов производства собственной молочной продукции и сокращении импорта молока из других регионов. В связи с этим, премьер-министр Дагестана, Абдулмуслим Абдулмуслимов, посетил молочную ферму и выразил свою обеспокоенность тем, что регион не обеспечивает себя достаточным количеством молочной продукции. Одной из посещенных премьер-министром молочных ферм является ферма ООО "Мареновский", специализирующаяся на разведении черно-пестрой и красной степной пород коров. Однако, согласно пресс-службе правительства, более половины молочной продукции в Дагестане по-прежнему приходится на импорт из других регионов, что свидетельствует о неблагоприятной ситуации с собственным производством. В свете этих фактов, Министерство сельского хозяйства и продовольствия Дагестана получило задание разработать республиканскую программу по развитию молочного скотоводства, которая будет ориентирована на поддержку фермеров и направлена на решение проблемы дефицита собственной молочной продукции в регионе.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;В хозяйстве АО «Голыцино» внедрение роботизированной системы доения коров привело к значительному улучшению качества молока и организации процесса доения. Благодаря этой инновационной системе, предприятие значительно увеличило показатель удоя молока, став одним из лучших в данной сфере. В настоящее время в хозяйстве функционирует 8 роботов, которые эффективно обслуживают 60 коров каждый.&lt;/p&gt;
-&lt;p&gt;В свою очередь, ООО Кизляр Урицкого мясокомбината планирует создать молокоперерабатывающий завод и расширить свою сырьевую базу путем разведения 1000 дойных коров. Для осуществления данного проекта будет проведена поэтапная реализация, начиная с создания молочно-товарной фермы на 250 коров. Ожидается, что это позволит компании увеличить производство молока и достичь новых высот в данной сфере.&lt;/p&gt;
-&lt;p&gt;В Дагестане поставлены перед собой задачи по дальнейшему развитию молочного скотоводства. Республика пока еще не полностью удовлетворяет свои внутренние потребности в молоке, поэтому в данном направлении проводятся инвестиционные проекты, при поддержке государства. Целью данных проектов является снижение зависимости республики от импорта молочной продукции и увеличение производства собственного молока.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Дискаунтеры, известные своим форматом с низкими ценами и ограниченным выбором товаров, стали популярным выбором среди бедного населения. В настоящее время российские дискаунтеры активно работают над увеличением доли продаж товаров под маркой СТМ и планируют достичь 50% продаж под этой маркой в течение ближайших 3-5 лет. Развитие сетей дискаунтеров играет важную роль в стратегии крупных розничных сетей, которые стремятся укрепить свои позиции на рынке и конкурировать с другими сетями. Учитывая рост числа бедного населения, спрос на дискаунтеры также увеличивается. Марка СТМ, вероятно, является собственной торговой маркой дискаунтеров, которая позволяет им сохранять низкие цены на товары.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Согласно данным, в России ежемесячно потребляется около 1200-1400 тонн пиццачиза. Однако, аналоги пиццачиза пользуются гораздо большей популярностью, их потребление составляет приблизительно 4000 тонн в месяц. Это означает, что соотношение потребления настоящей моцареллы и аналогов приблизительно 1:3. Важно отметить, что эти данные отражают только ситуацию внутри страны и не раскрывают факторы, влияющие на такое значительное потребление аналогов. Возможно, это объясняется их доступностью и низкой стоимостью. Для более глубокого понимания данного различия полезно знать дополнительную информацию о происхождении пиццачиза.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;В Белгородской области аграрии столкнулись с непростыми условиями, включающими обстрелы и минирование. Из-за этого они вынуждены работать в очень тяжелых и опасных условиях, надевая каски и бронежилеты, чтобы обеспечить свою безопасность. Тем не менее, несмотря на все трудности, эти мужественные люди продолжают справляться со своими задачами. Автор данного текста искренне благодарит аграриев за их усилия и работу. Он осознает, что опасные условия для аграриев в Белгородской области могут быть связаны с военными действиями и конфликтами, которые представляют реальную угрозу как им, так и окружающей среде. Обстрелы и минирование создают серьезную опасность во время работы аграриев на полях. Но благодаря использованию специальной экипировки, такой как каски и бронежилеты, аграрии могут надежно защитить себя от возможных опасностей. Это еще раз демонстрирует насколько тяжелыми и опасными являются условия работы для этих людей. Несмотря на все препятствия, эти аграрии проявляют мужество, продолжая работать в сложных условиях. Они не только справляются со своими задачами, но и успешно выполняют их, несмотря на все риски. Автор данного текста хочет выразить свою искреннюю признательность аграриям за их посильный вклад и усилия. Он восхищается их мужеством, преданностью к профессии и способностью преодолевать трудности, с которыми они сталкиваются каждый день.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Повышение ключевой ставки до 12% и уменьшение субсидирования от ключевой ставки вызвало серьезные проблемы для производителей и переработчиков молока. Теперь предприятия, которые планировали расширяться и внедрять новые технологии, вынуждены сократить свои инвестиции. В результате, объемы инвестиций в молочную отрасль уменьшатся. Сыроварни и молочные комбинаты, которые занимаются переработкой молока, столкнутся с высокими кредитными расходами, что ограничит их возможность приобретать новое оборудование и применять новые технологии. Повышение стоимости молочной продукции может привести к повышению цен для потребителей, что снизит конкурентоспособность отрасли на рынке. Увеличение ставки кредитования также затронет предприятия, работающие в молочной отрасли. Увеличение стоимости средств приведет к росту себестоимости производства молока. Производители молока будут вынуждены затратить больше денег на корма, оборудование и оплату рабочей силы. Это в итоге приведет к повышению себестоимости производства молочной продукции, что потребует увеличения цен. Такая ситуация усложнит конкуренцию на рынке и может снизить спрос на продукцию. В свете этих изменений предприятия в молочной отрасли вынуждены искать альтернативные источники финансирования или сокращать свою деятельность. Они могут обратиться к частным инвесторам или искать государственные программы поддержки. Однако это может быть сложно, особенно для малых предприятий, которым необходим доступ к большим финансовым ресурсам. В результате развитие и инновации в молочной отрасли могут замедлиться, что будет негативно сказываться на развитии всей отрасли.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;В ближайшем будущем Центральный банк планирует повысить ключевую ставку до 12% с целью контроля инфляции и укрепления рубля. Однако, такое повышение предполагается временным, и через полгода ожидается стабилизация ставки. Прогнозируется, что стабилизация будет обусловлена положительным торговым сальдо России в 2023 году. Улучшение экономической ситуации в стране, включая рост торгового сальдо, будет способствовать этой стабилизации. Повышение экспорта и сокращение импорта товаров и услуг могут способствовать достижению этой цели. Рост мирового спроса на российскую энергетику и сельскохозяйственные товары будет способствовать увеличению экспорта, что положительно скажется на торговом сальдо и поможет стабилизировать экономику. Стабильная экономическая ситуация также будет иметь положительный эффект на бизнес-среду, привлекая инвестиции в Россию и способствуя развитию страны. Таким образом, повышение ключевой ставки и стабилизация экономики будут играть важную роль для будущего России.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Азия, Ближний Восток и Евросоюз имеют свои уникальные различия в менталитете и культуре потребления. В этих регионах существуют особенные предпочтения и традиции, отличающиеся от европейских стандартов, когда дело касается выбора и потребления товаров. Чтобы успешно экспортировать продукцию в эти регионы, необходимо сделать совместные усилия государства и бизнеса. Одной из важных составляющих является адаптация продукции под менталитет и культуру данных регионов. Например, может потребоваться пересмотр упаковки, маркировки и содержания товаров. В странах Азии и Ближнего Востока огромное внимание уделяется прошлому опыту деловых отношений и доверию к поставщику. Поэтому для успешного экспорта необходимо учитывать эти аспекты. Государство может оказывать поддержку для успешного экспорта продукции в эти регионы. Также можно установить торговые соглашения, проводить совместное продвижение продукции на внешних рынках, привлекать инвестиции в экономику и обеспечивать юридическую защиту интересов бизнеса.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Россия приняла решение поддержать молочную отрасль Казахстана с целью способствовать развитию этого сектора в стране и помочь российским экспортерам укрепить свои позиции на рынке. Поддержка молочной отрасли Казахстана является важным шагом для республики, так как Казахстан является импортером продуктов сухих фракций из России. Это поддерживает расширение ассортимента продуктов на казахстанском рынке и разнообразия его структуры. Конкуренция на российском рынке высока, поэтому для развития молочной отрасли в Казахстане может потребоваться дополнительная поддержка. Поддержка экспортеров поможет увеличить объемы экспорта молочных продуктов из Казахстана и укрепить позиции на международном рынке. Ввоз продуктов сухих фракций из России также способствует расширению ассортимента товаров в Казахстане и разнообразию рынка.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Животноводческое производство в Витебской области имеет огромную возможность для дальнейшего развития производства мяса и молока. Витебская область, расположенная в северо-восточной части Беларуси, обладает благоприятными природными условиями для животноводства, такими как плодородные почвы и обширные пастбища. Правительство области стремится посвятить больше внимания развитию животноводческой продукции и сделать все возможное для того, чтобы ежегодно увеличивать производство в объеме от 5 до 7%. Такое увеличение производства мяса и молока позволит значительно увеличить их объемы в течение следующих трех-четырех лет. Это в свою очередь повысит самообеспеченность региона продуктами питания и снизит зависимость от импорта. Для достижения поставленных целей в увеличении производства необходимо внедрять современные технологии, проводить обучение квалифицированных сотрудников и разрабатывать соответствующие инфраструктуры для животноводства. Надо отметить, что активное развитие животноводческого сектора может способствовать росту экономики и улучшению жизни сельских жителей области.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/10/730200cleverm-1.png" alt=f""&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/10/num3-4.jpg" alt=f"Анатолий Лосев, генеральный директор ГК «Молвест»"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/10/num3-5.jpg" alt=f"Артем Крецу, представитель ТОО «ДЕП» (Казахстан)"&gt;</t>
+    <t>&lt;h2&gt;Как хранить картофель&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Как хранить морковь&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Как хранить свеклу&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;"Подпишитесь на новости аграрного комплекса (АПК). Любое использование материалов допускается только при соблюдении правил перепечатки и при наличии активной гиперссылки на сайт agroinvestor.ru. Редакция не несет ответственности за достоверность информации, опубликованной в рекламных объявлениях, партнерских материалах и сообщениях информационных агентств. Мы являемся зарегистрированным СМИ под номером ПИ № ФС 77 – 80404. Все права защищены. © 2004–2023 ООО «Континуум Риал Эстейт»."&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Отправить статью: "Как сохранить урожай после уборки"&lt;/p&gt;
+&lt;p&gt;А вы знаете, что большая часть урожая (до 30%!) погибает не только от зубов вредителей или от коварных болезней, но и во время хранения? Несоблюдение оптимальной температуры и влажности в помещении, слишком яркий свет, а также неправильные соседи – вот еще не все проблемы, с которыми сталкивается ваш урожай после уборки.&lt;/p&gt;
+&lt;p&gt;Снижение лежкости овощей также обусловлено неправильной уборкой и отсутствием подготовки плодов к хранению. Однако, давайте рассмотрим все эти вопросы по порядку.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Слишком ранняя или, наоборот, слишком поздняя уборка урожая оказывает негативное влияние на качество плодов. В таком случае, они могут гнить или пересыхать, становиться предметом болезней, а также терять свои вкусовые свойства. Правильное время уборки является одним из ключевых условий для хорошего сохранения плодов. Выбор наилучшего момента для уборки зависит от разных факторов, таких как местоположение, погода в текущем сезоне, созревание сортов и так далее. Однако, есть общие рекомендации, которые помогут определить оптимальный промежуток времени для уборки урожая.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;После уборки и последующей подготовки весь урожай перед отправкой на хранение тщательно сортируют. Для длительного хранения оставляют плоды и корнеплоды с безупречной кожицей и без повреждений. Тем временем, все экземпляры с поврежденной кожицей, вмятинами или другими повреждениями, сразу употребляют в пищу или отправляют на переработку. Подобные плоды не могут долго храниться и могут быть причиной повреждения остальных здоровых плодов.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Для сохранения овощей в течение нескольких месяцев необходимо выбирать только абсолютно здоровые и нетронутые плоды. Однако, помимо этого, также важно соблюдать агротехнику при выращивании культур, проводить профилактические обработки посадок и укреплять иммунитет растений, чтобы предотвратить заболевания овощей. Кроме того, необходимо бороться с вредителями, которые могут быть как насекомыми, например проволочником, колорадским жуком, медведкой и другими, так и грызунами и слизнями с улитками. Начинать борьбу с вредителями следует сразу после их появления, таким образом можно предотвратить потерю урожая.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Лето на исходе, и наступило время собирать плоды, которые столь усердно выращивались в течение всего сезона. Каждый садовод мечтает о богатом урожае, именно поэтому они готовы к жестким сражениям на полях своих участков. Если лето было благосклонным, и фруктовые деревья до предела нагружены плодами, ягоды покрывают землю, а овощи гордо возвышаются на грядках, то пришло время начать процесс сохранения урожая на зиму. В этой битве за сохранение плодов и овощей, садоводы становятся настоящими героями, готовыми противостоять зиме и обеспечить себя свежими продуктами весь холодный сезон.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Оптимальные условия для хранения картофеля – темное прохладное место, которое защищает клубни от воздействия света. На свету картофель зеленеет, и в нем накапливаются ядовитые вещества, поэтому необходимо предоставить ему защиту от света. Кроме того, в теплой среде клубни начинают прорастать, а также теряется их питательная ценность. Поэтому важно хранить картофель в прохладном месте.&lt;/p&gt;
+&lt;p&gt;Идеальным местом для хранения картофеля является погреб или подвал, где создается подходящий микроклимат для сохранения свежести клубней. Однако, если у вас нет таких помещений, можно использовать балкон, но только до наступления морозов, чтобы избежать замораживания клубней.&lt;/p&gt;
+&lt;p&gt;Для хранения картофеля рекомендуется использовать деревянные ящики, предварительно обеззараженные и хорошо просушенные. Дерево обеспечивает хорошую вентиляцию, что помогает избежать сырости и гниения клубней.&lt;/p&gt;
+&lt;p&gt;Важно регулярно осматривать картофель, отбирая гнилые и проросшие клубни. Это поможет предотвратить распространение гнили и сохранить качество остальных клубней. Также следует избегать складывания картофеля в большие кучи, чтобы избежать повреждения клубней.&lt;/p&gt;
+&lt;p&gt;Обеспечивая оптимальные условия хранения для картофеля, вы сможете сохранить его свежесть и питательные свойства на длительный период.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Для успешного хранения моркови особенно важно обеспечить оптимальную влажность и температуру. Как уже упоминалось, и излишняя влажность, и недостаток влаги могут негативно повлиять на состояние корнеплода. Поэтому для сохранения моркови в идеальном состоянии необходимо поддерживать влажность воздуха на уровне 90% и температуру около +1 градуса.&lt;/p&gt;
+&lt;p&gt;Перед закладкой морковь на хранение следует подготовить. Нужно срезать ботву и удалить излишнюю грязь, но не стоит стараться убрать каждую каплю грунта. Важно, чтобы морковь была плотной, здоровой, без признаков проростков и механических повреждений. Отмечено, что морковь, собранная во время заморозков, лучше всего сохраняется. Если уборка моркови производилась во влажную погоду, перед хранением корнеплоды должны быть тщательно высушены.&lt;/p&gt;
+&lt;p&gt;Считается, что корнеплоды моркови лучше хранятся, если с момента сбора до закладки на хранение прошло не более суток. Поэтому стоит планировать время хранения и оперативно проводить уборку и подготовку к хранению.&lt;/p&gt;
+&lt;p&gt;Выбор способа хранения моркови зависит от предпочтений и возможностей. Морковь можно хранить в подвале, погребе, холодильнике или специальных хранилищах.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Свекла совершенно не переносит заморозков и подмороженные корнеплоды быстро начинают портиться. Поэтому для уборки свеклы, предназначенной для хранения, лучше выбрать солнечный сухой день. Обычно в средней полосе России свеклу начинают убирать в октябре, а на юге – в конце октября – ноябре. Если все же уборка свеклы пришлась на пасмурную погоду, корнеплоды перед закладкой на хранение нужно тщательно просушить во избежание развития болезнетворных бактерий.&lt;/p&gt;
+&lt;p&gt;При выкапывании свеклы следует быть особенно осторожным, чтобы не повредить кожицу. После выкапывания, свеклу нужно очистить от излишней грязи и удалить корешки, оставив длину центрального корня приблизительно 6-7 см. Важно помнить, что любое повреждение корнеплода сокращает его срок хранения.&lt;/p&gt;
+&lt;p&gt;После этого свеклу следует оставить для просушки, удалив ботву. Хорошей практикой является сушить свеклу на открытом воздухе, при хорошей погоде, используя подстилку.&lt;/p&gt;
+&lt;p&gt;Для удобства хранения, свеклу можно отсортировать по размеру и разложить на хранение. Существуют разные способы хранения свеклы, и важно выбрать оптимальный режим хранения, чтобы продлить срок ее сохранности.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/10/xranenie-ovoshhej-i-fruktov-ili-kak-soxranit-urozhaj-02-1.jpg" alt=f"Как хранить картофель"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/10/xranenie-ovoshhej-i-fruktov-ili-kak-soxranit-urozhaj-04-1.jpg" alt=f"Как хранить морковь"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/10/xranenie-ovoshhej-i-fruktov-ili-kak-soxranit-urozhaj-06-1.jpg" alt=f"Как хранить свеклу"&gt;</t>
   </si>
 </sst>
 </file>
@@ -474,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,7 +498,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -519,7 +512,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -533,10 +526,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -550,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -564,7 +554,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -578,7 +568,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -592,10 +582,10 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -609,7 +599,10 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -623,38 +616,10 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/2.xlsx
+++ b/2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>num</t>
   </si>
@@ -28,88 +28,182 @@
     <t xml:space="preserve"> image</t>
   </si>
   <si>
-    <t>&lt;h2&gt;Вливания в «молочные реки». Производство молока остается привлекательным направлением для инвесторов&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Добавление статьи в новую подборку&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Правило 2. Придерживайтесь сроков уборки урожая&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Правило 4. Проведите сортировку плодов перед хранением&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Правило 5. Защитите урожай от болезней и вредителей&lt;/h2&gt;</t>
+    <t>&lt;h2&gt;Описание и характеристика культуры&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Достоинства и недостатки&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Предпосевные работы&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Выбор места для посадки&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Подготовка семян&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Посадка редьки в открытый грунт&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Правила ухода&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Режим полива&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Прополка и рыхление&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Окучивание&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Основные болезни и вредители&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Чем полезна редька лобо?&lt;/h2&gt;</t>
   </si>
   <si>
     <t>&lt;h2&gt;&lt;/h2&gt;</t>
   </si>
   <si>
-    <t>&lt;h2&gt;Как хранить картофель&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Как хранить морковь&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Как хранить свеклу&lt;/h2&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;"Подпишитесь на новости аграрного комплекса (АПК). Любое использование материалов допускается только при соблюдении правил перепечатки и при наличии активной гиперссылки на сайт agroinvestor.ru. Редакция не несет ответственности за достоверность информации, опубликованной в рекламных объявлениях, партнерских материалах и сообщениях информационных агентств. Мы являемся зарегистрированным СМИ под номером ПИ № ФС 77 – 80404. Все права защищены. © 2004–2023 ООО «Континуум Риал Эстейт»."&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Отправить статью: "Как сохранить урожай после уборки"&lt;/p&gt;
-&lt;p&gt;А вы знаете, что большая часть урожая (до 30%!) погибает не только от зубов вредителей или от коварных болезней, но и во время хранения? Несоблюдение оптимальной температуры и влажности в помещении, слишком яркий свет, а также неправильные соседи – вот еще не все проблемы, с которыми сталкивается ваш урожай после уборки.&lt;/p&gt;
-&lt;p&gt;Снижение лежкости овощей также обусловлено неправильной уборкой и отсутствием подготовки плодов к хранению. Однако, давайте рассмотрим все эти вопросы по порядку.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Слишком ранняя или, наоборот, слишком поздняя уборка урожая оказывает негативное влияние на качество плодов. В таком случае, они могут гнить или пересыхать, становиться предметом болезней, а также терять свои вкусовые свойства. Правильное время уборки является одним из ключевых условий для хорошего сохранения плодов. Выбор наилучшего момента для уборки зависит от разных факторов, таких как местоположение, погода в текущем сезоне, созревание сортов и так далее. Однако, есть общие рекомендации, которые помогут определить оптимальный промежуток времени для уборки урожая.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;После уборки и последующей подготовки весь урожай перед отправкой на хранение тщательно сортируют. Для длительного хранения оставляют плоды и корнеплоды с безупречной кожицей и без повреждений. Тем временем, все экземпляры с поврежденной кожицей, вмятинами или другими повреждениями, сразу употребляют в пищу или отправляют на переработку. Подобные плоды не могут долго храниться и могут быть причиной повреждения остальных здоровых плодов.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Для сохранения овощей в течение нескольких месяцев необходимо выбирать только абсолютно здоровые и нетронутые плоды. Однако, помимо этого, также важно соблюдать агротехнику при выращивании культур, проводить профилактические обработки посадок и укреплять иммунитет растений, чтобы предотвратить заболевания овощей. Кроме того, необходимо бороться с вредителями, которые могут быть как насекомыми, например проволочником, колорадским жуком, медведкой и другими, так и грызунами и слизнями с улитками. Начинать борьбу с вредителями следует сразу после их появления, таким образом можно предотвратить потерю урожая.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Лето на исходе, и наступило время собирать плоды, которые столь усердно выращивались в течение всего сезона. Каждый садовод мечтает о богатом урожае, именно поэтому они готовы к жестким сражениям на полях своих участков. Если лето было благосклонным, и фруктовые деревья до предела нагружены плодами, ягоды покрывают землю, а овощи гордо возвышаются на грядках, то пришло время начать процесс сохранения урожая на зиму. В этой битве за сохранение плодов и овощей, садоводы становятся настоящими героями, готовыми противостоять зиме и обеспечить себя свежими продуктами весь холодный сезон.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Оптимальные условия для хранения картофеля – темное прохладное место, которое защищает клубни от воздействия света. На свету картофель зеленеет, и в нем накапливаются ядовитые вещества, поэтому необходимо предоставить ему защиту от света. Кроме того, в теплой среде клубни начинают прорастать, а также теряется их питательная ценность. Поэтому важно хранить картофель в прохладном месте.&lt;/p&gt;
-&lt;p&gt;Идеальным местом для хранения картофеля является погреб или подвал, где создается подходящий микроклимат для сохранения свежести клубней. Однако, если у вас нет таких помещений, можно использовать балкон, но только до наступления морозов, чтобы избежать замораживания клубней.&lt;/p&gt;
-&lt;p&gt;Для хранения картофеля рекомендуется использовать деревянные ящики, предварительно обеззараженные и хорошо просушенные. Дерево обеспечивает хорошую вентиляцию, что помогает избежать сырости и гниения клубней.&lt;/p&gt;
-&lt;p&gt;Важно регулярно осматривать картофель, отбирая гнилые и проросшие клубни. Это поможет предотвратить распространение гнили и сохранить качество остальных клубней. Также следует избегать складывания картофеля в большие кучи, чтобы избежать повреждения клубней.&lt;/p&gt;
-&lt;p&gt;Обеспечивая оптимальные условия хранения для картофеля, вы сможете сохранить его свежесть и питательные свойства на длительный период.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Для успешного хранения моркови особенно важно обеспечить оптимальную влажность и температуру. Как уже упоминалось, и излишняя влажность, и недостаток влаги могут негативно повлиять на состояние корнеплода. Поэтому для сохранения моркови в идеальном состоянии необходимо поддерживать влажность воздуха на уровне 90% и температуру около +1 градуса.&lt;/p&gt;
-&lt;p&gt;Перед закладкой морковь на хранение следует подготовить. Нужно срезать ботву и удалить излишнюю грязь, но не стоит стараться убрать каждую каплю грунта. Важно, чтобы морковь была плотной, здоровой, без признаков проростков и механических повреждений. Отмечено, что морковь, собранная во время заморозков, лучше всего сохраняется. Если уборка моркови производилась во влажную погоду, перед хранением корнеплоды должны быть тщательно высушены.&lt;/p&gt;
-&lt;p&gt;Считается, что корнеплоды моркови лучше хранятся, если с момента сбора до закладки на хранение прошло не более суток. Поэтому стоит планировать время хранения и оперативно проводить уборку и подготовку к хранению.&lt;/p&gt;
-&lt;p&gt;Выбор способа хранения моркови зависит от предпочтений и возможностей. Морковь можно хранить в подвале, погребе, холодильнике или специальных хранилищах.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Свекла совершенно не переносит заморозков и подмороженные корнеплоды быстро начинают портиться. Поэтому для уборки свеклы, предназначенной для хранения, лучше выбрать солнечный сухой день. Обычно в средней полосе России свеклу начинают убирать в октябре, а на юге – в конце октября – ноябре. Если все же уборка свеклы пришлась на пасмурную погоду, корнеплоды перед закладкой на хранение нужно тщательно просушить во избежание развития болезнетворных бактерий.&lt;/p&gt;
-&lt;p&gt;При выкапывании свеклы следует быть особенно осторожным, чтобы не повредить кожицу. После выкапывания, свеклу нужно очистить от излишней грязи и удалить корешки, оставив длину центрального корня приблизительно 6-7 см. Важно помнить, что любое повреждение корнеплода сокращает его срок хранения.&lt;/p&gt;
-&lt;p&gt;После этого свеклу следует оставить для просушки, удалив ботву. Хорошей практикой является сушить свеклу на открытом воздухе, при хорошей погоде, используя подстилку.&lt;/p&gt;
-&lt;p&gt;Для удобства хранения, свеклу можно отсортировать по размеру и разложить на хранение. Существуют разные способы хранения свеклы, и важно выбрать оптимальный режим хранения, чтобы продлить срок ее сохранности.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/10/xranenie-ovoshhej-i-fruktov-ili-kak-soxranit-urozhaj-02-1.jpg" alt=f"Как хранить картофель"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/10/xranenie-ovoshhej-i-fruktov-ili-kak-soxranit-urozhaj-04-1.jpg" alt=f"Как хранить морковь"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/10/xranenie-ovoshhej-i-fruktov-ili-kak-soxranit-urozhaj-06-1.jpg" alt=f"Как хранить свеклу"&gt;</t>
+    <t>&lt;h2&gt;Агротехника сладкой редьки&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Подкормка&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Лоба: уборка и хранение урожая&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Редька чёрная (посевная): лечебные свойства, рецепты&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Выращивание редьки для осенне-зимнего потребления&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Выращивание редиса в теплице круглый год&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Свои семена редиса и редьки: правила выращивания&lt;/h2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Описание и характеристика культуры лобо&lt;/p&gt;
+&lt;p&gt;&lt;li&gt;Лобо  растение, которое по своим параметрам схоже с дайконом. Однако основное отличие лобо заключается в продолжительности вегетационного периода, который длится дольше, чем у дайкона. &lt;/li&gt;&lt;/p&gt;
+&lt;p&gt;Наряду с этим, лобо обладает и другими характеристиками, в том числе:&lt;/p&gt;
+&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num1.jpg" alt="" width="36" height="35" /&gt; Форма и размеры: лобо имеет форму и размеры, близкие к дайкону. Он обычно имеет удлиненную цилиндрическую форму, с плавно скругленными краями.&lt;/p&gt;
+&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num2.jpg" alt="" width="36" height="35" /&gt; Цвет: в зависимости от сорта, лобо может быть белым, зеленым или фиолетовым.&lt;/p&gt;
+&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num3.jpg" alt="" width="36" height="35" /&gt; Консистенция и структура: плотная и сочная мякоть лобо делает его идеальным для использования в различных блюдах.&lt;/p&gt;
+&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num4.jpg" alt="" width="36" height="35" /&gt; Вкус и аромат: лобо имеет сладковатый вкус и приятный запах, что делает его популярным в кулинарии.&lt;/p&gt;
+&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num5.jpg" alt="" width="36" height="35" /&gt; Урожайность: лобо является высокоурожайным растением, способным давать впечатляющие урожаи.&lt;/p&gt;
+&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num6.jpg" alt="" width="36" height="35" /&gt; Условия выращивания: лобо предпочитает солнечные места, хорошо пропускающие влагу и плодородные почвы. Он также устойчив к некоторым болезням и вредителям.&lt;/p&gt;
+&lt;p&gt;Эти характеристики делают лобо интересным и полезным растением для выращивания в саду или огороде. Он может быть использован в различных кулинарных рецептах и добавлен в салаты, супы или гарниры, придавая им свежий и ароматный вкус.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Достоинства и недостатки Редьки лобо, как и любой другой разновидности овоща, обладает рядом преимуществ и недостатков. К плюсам относятся следующие:&lt;/p&gt;
+&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num1.jpg" alt="" width="36" height="35" /&gt; Низкокалорийность - редька лобо является низкокалорийным продуктом, что делает его популярным среди людей, следящих за своей фигурой и здоровьем.&lt;/p&gt;
+&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num2.jpg" alt="" width="36" height="35" /&gt; Богатство питательными веществами - редька лобо содержит множество витаминов и минералов, таких как витамин С, калий и фолиевая кислота, которые полезны для поддержания здоровья организма.&lt;/p&gt;
+&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num3.jpg" alt="" width="36" height="35" /&gt; Антимикробные свойства - редька лобо обладает антимикробными свойствами, что помогает бороться с инфекциями и укреплять иммунную систему.&lt;/p&gt;
+&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num4.jpg" alt="" width="36" height="35" /&gt; Хорошая усваиваемость - редька лобо легко усваивается организмом, что позволяет быстро получать пользу для здоровья.&lt;/p&gt;
+&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num5.jpg" alt="" width="36" height="35" /&gt; Наличие клетчатки - редька лобо является источником клетчатки, которая способствует нормализации пищеварения и предотвращает запоры.&lt;/p&gt;
+&lt;p&gt;Однако, у редьки лобо также есть некоторые недостатки:&lt;/p&gt;
+&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num1.jpg" alt="" width="36" height="35" /&gt; Острый вкус - некоторые люди могут не нравиться острый и пикантный вкус редьки лобо.&lt;/p&gt;
+&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num2.jpg" alt="" width="36" height="35" /&gt; Возможность вызвать аллергическую реакцию - у некоторых людей может возникнуть аллергическая реакция на употребление редьки лобо.&lt;/p&gt;
+&lt;p&gt;&lt;img class="alignnone" src="https://supergardener.ru/wp-content/uploads/2023/09/num3.jpg" alt="" width="36" height="35" /&gt; Ограниченные способы приготовления - редька лобо плохо сочетается с некоторыми продуктами и может иметь ограниченные способы приготовления.&lt;/p&gt;
+&lt;p&gt;Несмотря на некоторые недостатки, редька лобо является полезным и питательным овощем, который стоит включить в свой рацион питания."""&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;В целом, редька лобо является достаточно неприхотливой и некапризной культурой и не имеет особых предпочтений к освещению, почве или температуре. Однако, чтобы получить качественный урожай, редьке лобо все же потребуются некоторые оптимальные условия.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Поскольку редька относится к семейству Крестоцветных, она подвержена тому же нападению паразитов и болезней, что и другие растения этого семейства. Чтобы избежать проблем, не рекомендуется сажать редьку рядом с капустой, редиской, морковью, свеклой или хреном. Чтобы обеспечить надлежащее условие для выращивания редьки, рекомендуется сеять её после сбора ранних урожаев или между рядами картошки, лука и огурцов. Сажать редьку на том же месте, где росли крестоцветные, следует только через 3-4 года. В целом, выращивание редьки не требует особых навыков. Она хорошо растет на освещенных, солнечных участках и переносит небольшую тень. Идеальное место для посадки редьки – это комбинированные грядки, которые получают солнечные лучи на протяжении всего дня. Редька имеет высокую устойчивость к холоду. Семена начинают прорастать при температуре +2-3 градуса. Редька может переносить заморозки до -3-4 градусов, а взрослые растения – до -5-6 градусов. Культура может расти при температуре от +5 до +25 градусов, но наиболее подходящей является температура от +18 до +20 градусов.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Семена перед посадкой калибруют, чтобы использовать только лучшие и наиболее полновесные семена, которые обеспечат отличные всходы и повышенный урожай. Дополнительно, перед посевом рекомендуется обработать семена стимуляторами роста, такими как Оракул, Вымпел-К и другие. Это способствует более активному развитию растений и повышает их устойчивость к стрессовым условиям.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Важным фактором для повышения продуктивности является не только уход за растениями, но и правильная схема и способ их размещения. Рекомендуется использовать схему 30 на 60 см, где расстояние между рядами составляет 60 см, а между отдельными растениями – 30 см. Однако, если вы собираетесь выращивать корнеплоды меньшего размера, то более подходящей будет схема 20 на 40 см. Следуя этим рекомендациям, вы сможете обеспечить оптимальное размещение растений и достичь хороших результатов. При условии благоприятных погодных условий и правильного ухода, уже через 5 дней вы сможете наблюдать первые всходы. Это позволит вам быстрее приступить к следующему этапу заботы о растениях.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Правила ухода за растениями очень важны, чтобы получить качественный урожай. После посева необходимо проводить ряд действий, чтобы обеспечить правильный рост и развитие растений.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Для редьки полив имеет большое значение, особенно в условиях сухого лета без осадков. Чтобы корнеплод развился и насытился соком, полив является неотъемлемой частью ухода. Наиболее эффективным методом полива является дождевание, особенно если посевы замульчированы. Если влаги недостаточно, плоды становятся жесткими, а растения начинают стеблеваться. Однако редька также не переносит переувлажнения. В течение всего периода вегетации рекомендуется проводить четыре полива в объеме 200-300 литров на 10 квадратных метров.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Рыхление является одной из важнейших работ по уходу за редькой и помогает не только избавиться от сорняков и предотвратить их появление, но и благоприятно сказывается на состоянии почвы и развитии корнеплодов. Когда рыхлят почву, удаляют сорняки, снимают почвенную корку и создают благоприятные условия для роста растений.&lt;/p&gt;
+&lt;p&gt;В уходе важно не допустить образования почвенной корки, под которой молодые всходы просто задыхаются. Рыхлить нужно регулярно, чтобы сохранить качество почвы на высоком уровне и обеспечить оптимальные условия для корневой системы.&lt;/p&gt;
+&lt;p&gt;Результатом рыхления становится свободное поступление органических веществ, влаги и кислорода к корням редьки. Благодаря этому улучшается питательный режим растений и их рост становится более активным.&lt;/p&gt;
+&lt;p&gt;Помимо рыхления, также проводят прополку для удаления сорняков, которые могут соревноваться с редькой за питательные вещества и пространство.&lt;/p&gt;
+&lt;p&gt;Таким образом, рыхление и прополка являются неотъемлемыми составляющими ухода за редькой, гарантирующими ее успешное развитие и урожай.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Окучивание представляет собой прием обработки редьки, способствующий образованию дополнительной корневой системы и сохранению влаги в почве. Этот прием применяют для обеспечения большей устойчивости к полеганию, а также для защиты растений от порывов ветра. &lt;/p&gt;
+&lt;p&gt;В процессе окучивания создается дополнительный слой почвы вокруг основания стеблей, на котором образуются новые корни. Эти корни удерживают растения и предотвращают их повреждение под действием ветра. &lt;/p&gt;
+&lt;p&gt;Окучивание следует проводить после дождя или полива, когда почва подсохнет в течение двух-трех суток. Вручную окучивание можно осуществлять, а также возможно использование культиваторов для работы на больших площадях. &lt;/p&gt;
+&lt;p&gt;Окучивание является важной процедурой, которая помогает растениям стать более устойчивыми и успешно развиваться. Она также способствует сохранению влаги в почве, что особенно важно во время засушливых периодов.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;При правильном проведении агротехнических мероприятий данная разновидность редьки обладает достаточной устойчивостью к болезням и паразитам. Однако, необходимо учитывать, что есть возможность заражения. Вот наиболее распространенные болезни и вредители, которые могут появиться:&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Редька является богатым источником клетчатки, которая очень полезна для нормальной работы кишечника. Не только это, но в ней также содержатся эфирные масла, которые имеют противовоспалительные и бактерицидные свойства. Кроме того, редька имеет желчегонный эффект, который может быть полезен при проблемах с печенью и желчным пузырем, а также при низкой кислотности в желудочном соке. Для лечения простуды и воспалительных заболеваний рекомендуется употреблять свежевыжатый сок из корнеплодов этого овоща.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Если японскую редьку дайкон сейчас выращивают многие садоводы, то ее китайский вариант — лоба — практически незнаком даже любопытным овощеводам-любителям. В Китае такую редьку выращивают повсюду, и продается она на всех многочисленных базарах. Корнеплоды лобы могут быть разнообразной формы и окраски — от круглых до цилиндрических, с белой, светло-зеленой или красной кожицей. Но в верхней части головки корнеплоды всегда окрашены в интенсивный зеленый цвет. Мякоть корнеплодов имеет окраску от белой до розово-красной. Вес корнеплода колеблется от 0,5 до 1 кг и более. Вкус лобы занимает промежуточное положение между дайконом и европейскими сортами редьки, мякоть у них слабоострого вкуса. По вкусовым качествам многие ее сорта близки к редису. &lt;/p&gt;
+&lt;p&gt;Лоба хранится лучше, чем дайкон, но хуже, чем зимние сорта европейской редьки. Однако, помимо экзотического внешнего вида, изумительных вкусовых качеств и внушительных размеров, лоба обладает и целебными свойствами. Она сдерживает рост бактерий, выводит лишнюю воду из организма, способствует пищеварению, очищает печень и почки, растворяет камни в почках, выводит соли тяжелых металлов и радионуклидов. Важно отметить, что эти свойства не оказывают резкого возбуждающего действия на сердечную деятельность, таких, как наша черная редька, поэтому лоба не противопоказана пожилым людям. Относительно обычной редьки и редиса, ценность лобы значительно выше, поскольку она способствует укреплению иммунной системы, снижению уровня холестерина и канцерогенных веществ в организме.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;&lt;li&gt;Лоба  неприхотливое растение, и даже те сорта, которые имеют круглую форму и не погружены глубоко в землю, могут культивироваться даже на тяжелых глинистых почвах. Однако для получения высокого урожая лобы рекомендуется выращивать на плодородных почвах, хорошо обогащенных органикой, такой как компост или перегной, и с нейтральной реакцией.&lt;/li&gt;&lt;/p&gt;
+&lt;p&gt;Лучшими предшественниками для лобы являются бобовые и озимые зерновые культуры, огурцы, ранний картофель, помидоры и лук. Китайскую редьку можно сеять как весной, так и летом, однако при весеннем посеве она часто образует цветоносы, и плоды этих растений не пригодны для употребления в пищу, в отличие от дайкона. При летнем посеве растения лобы не образуют цветоносы и дают большой урожай корнеплодов.&lt;/p&gt;
+&lt;p&gt;Для выращивания лобы почву необходимо подготовить, как и для других корнеплодов. Рекомендуется хорошо удобрять почву органическими удобрениями, применяя компост или перегной в количестве 1 ведра на 1 квадратный метр на легких плодородных почвах и 2 ведра на 1 квадратный метр на тяжелых глинистых почвах. Но свежий навоз не следует вносить под лобу, его лучше использовать для предшествующей культуры. Глубина перекопки почвы должна быть не менее 30 см. Если почва кислая, рекомендуется добавить гашеную известь. На низинных участках лобу лучше выращивать на гребнях и грядках.&lt;/p&gt;
+&lt;p&gt;Перед посевом рекомендуется внести полное минеральное удобрение или нитрофоску в количестве 1 чайной ложки на 1 квадратный метр. Однако еще лучше использовать комплексные удобрения, такие как "Кемира-люкс" или "Кемира-универсал-2", которые содержат не только азот, фосфор и калий, но и все необходимые микроэлементы. Хотя такие удобрения дороже нитрофоски, они более эффективны.&lt;/p&gt;
+&lt;p&gt;Существует два срока посева лобы в зависимости от сорта. Для получения корнеплодов в летне-осенний период семена сеют с 25 апреля. Для зимнего хранения рекомендуется проводить посев с 20 июня по 10 июля, чтобы избежать выбрасывания соцветий в первый год и растрескивания корнеплодов. Максимальный урожай корнеплодов получается при посеве семян в начале первой декады июля. В это время условия выращивания наиболее благоприятны для большинства сортов лобы. После посева почву следует хорошо полить и замульчировать. Если планируется использовать лобу для зимнего хранения, рекомендуется провести посев в конце первой декады июля. Самый последний срок посева семян - середина июля, но в этом случае корнеплоды окажутся маленькими.&lt;/p&gt;
+&lt;p&gt;Оптимальная температура для роста и развития лобы составляет 15-18 °C. Культура холодостойка и может выдерживать легкие заморозки.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;При достижении корнеплодом диаметра 3–4 см, растения необходимо подкормить раствором коровяка или золой. Это особенно важно на богатых почвах. Для ранних сортов будет достаточно 1–2 подкормок, в то время как для зимних сортов потребуется 3–4 подкормки с интервалом 10–12 дней. Кроме того, стоит отметить еще одну особенность лобы - при выращивании на грядке, она дает более высокий урожай, чем на ровной поверхности.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Перед наступлением заморозков следует убрать корнеплоды с грядки. Ранние сорта лучше собирать по мере их созревания, особенно в сухую погоду, а зимние сорта можно убирать все сразу. Если корнеплоды предназначены для длительного хранения, то ботву необходимо не отрезать, а оборвать, оставив черешок длиной 1,5–2 см. Так они будут хорошо сохранять свою свежесть в холодных подвалах до конца зимы, будто только что были сняты с грядки.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Редька посевная – ценное лекарственное растение, которое широко применяется в народной медицине. Она известна своими отхаркивающими, желчегонными и мочегонными свойствами, а также способностью отвлекать от болезней желудка, кишечника и печени. Благодаря этим свойствам, редька посевная является неотъемлемым компонентом при лечении различных заболеваний.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Отличительной особенностью выращивания редьки для осенне-зимнего потребления является то, что это процесс начинается летом. Именно в это время, когда дни становятся короче, примерно в июле, семена озимой редьки сажаются. Такое раннее посевное время позволяет получить урожай более крупных, вкусных и сочных корнеплодов, которые хранятся практически до конца зимы. Можно смело сказать, что это эффективный способ выращивания редьки, который обеспечивает все необходимые условия для достижения высоких результатов.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Выращивание редиса в теплице круглый год является оптимальным решением для получения высоких урожаев этого овоща. Редис отличается быстрым ростом, что позволяет использовать теплицу как идеальное место для выращивания его в качестве предшествующей, пожнивной или промежуточной культуры. Такая возможность дает фермерам значительное преимущество, позволяя им получать урожаи редиса на протяжении всего года.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Семена редиса и редьки можно получить двумя способами - пересадочным и беспересадочным. Однако стоит помнить, что редис и редька могут подвергаться переопылению не только между собой, но и с дикой редькой. Это может привести к потере сортовых признаков и разнообразия растений.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/10/64635.ppt6vo.840-3.webp" alt=f"Подготовка семян"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://supergardener.ru/wp-content/uploads/2023/10/1-avgusta-red-ka-margelanskaya-zelenaya-zimnyaya-chernaya-i-repa-foto-1024x768-4.webp" alt=f"Окучивание"&gt;</t>
   </si>
 </sst>
 </file>
@@ -467,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,7 +592,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -512,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -526,7 +620,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -540,7 +634,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -554,7 +648,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -568,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -582,10 +679,7 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -599,10 +693,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -616,10 +707,164 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="E10" t="s">
-        <v>24</v>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
